--- a/elite-data/manifest-templates/EL_template_AssayRNAseqTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayRNAseqTemplate.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>Filename</t>
   </si>
@@ -325,43 +325,49 @@
     <t>MetaboLights</t>
   </si>
   <si>
-    <t>sac-seq</t>
+    <t>Qiagen Rneasy Extraction Kit</t>
   </si>
   <si>
     <t>Metabolomics Workbench</t>
   </si>
   <si>
-    <t>Smart-seq1</t>
+    <t>sac-seq</t>
   </si>
   <si>
     <t>MGnify</t>
   </si>
   <si>
-    <t>Smart-seq2</t>
+    <t>Smart-seq1</t>
   </si>
   <si>
     <t>NCBI Gene</t>
   </si>
   <si>
+    <t>Smart-seq2</t>
+  </si>
+  <si>
     <t>Smart-seq4</t>
+  </si>
+  <si>
+    <t>SMRTbell</t>
+  </si>
+  <si>
+    <t>TruSeq</t>
+  </si>
+  <si>
+    <t>Ultralow Methyl-Seq</t>
   </si>
   <si>
     <t>PRIDE</t>
   </si>
   <si>
-    <t>SMRTbell</t>
-  </si>
-  <si>
     <t>SRA</t>
   </si>
   <si>
-    <t>TruSeq</t>
+    <t>Synapse</t>
   </si>
   <si>
     <t>UniProt</t>
-  </si>
-  <si>
-    <t>Ultralow Methyl-Seq</t>
   </si>
 </sst>
 </file>
@@ -27741,20 +27747,20 @@
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
+      <formula1>Sheet2!$L$2:$L$23</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
+      <formula1>Sheet2!$H$2:$H$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
-      <formula1>Sheet2!$H$2:$H$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
-      <formula1>Sheet2!$L$2:$L$22</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="R2:R1000">
       <formula1>Sheet2!$R$2:$R$8</formula1>
@@ -28080,30 +28086,61 @@
     </row>
     <row r="19">
       <c r="H19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="7" t="s">
+    </row>
+    <row r="20">
+      <c r="H20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20">
-      <c r="H20" s="7" t="s">
+    <row r="21">
+      <c r="H21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="7" t="s">
+    </row>
+    <row r="22">
+      <c r="H22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21">
-      <c r="H21" s="7" t="s">
+    <row r="23">
+      <c r="H23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="H24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22">
-      <c r="L22" s="7" t="s">
+    <row r="25">
+      <c r="H25" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" s="7" t="s">
         <v>54</v>
       </c>
     </row>

--- a/elite-data/manifest-templates/EL_template_AssayRNAseqTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayRNAseqTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -474,6 +474,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
